--- a/EPLPredictorBackend/PLResults.xlsx
+++ b/EPLPredictorBackend/PLResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saahil Parikh\Projects\EPLPredictor\EPLPredictorBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0825DEB6-5227-42DF-ABDF-FA694699A11A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D240FEBB-619C-4161-AABA-62E8DF8D1333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="300">
   <si>
     <t>Home Team</t>
   </si>
@@ -918,6 +918,18 @@
   </si>
   <si>
     <t>2.61964</t>
+  </si>
+  <si>
+    <t>1.20465</t>
+  </si>
+  <si>
+    <t>1.45722</t>
+  </si>
+  <si>
+    <t>2.41157</t>
+  </si>
+  <si>
+    <t>0.277737</t>
   </si>
 </sst>
 </file>
@@ -1257,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="H135" sqref="H135"/>
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1310,7 +1322,7 @@
         <v>45.6</v>
       </c>
       <c r="F2">
-        <f>SUM(100-E2)</f>
+        <f t="shared" ref="F2:F33" si="0">SUM(100-E2)</f>
         <v>54.4</v>
       </c>
     </row>
@@ -1331,7 +1343,7 @@
         <v>29.3</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">SUM(100-E3)</f>
+        <f t="shared" si="0"/>
         <v>70.7</v>
       </c>
     </row>
@@ -1982,7 +1994,7 @@
         <v>69.5</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F34:F65" si="1">SUM(100-E34)</f>
         <v>30.5</v>
       </c>
     </row>
@@ -2003,7 +2015,7 @@
         <v>61.6</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.4</v>
       </c>
     </row>
@@ -2024,7 +2036,7 @@
         <v>64.5</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.5</v>
       </c>
     </row>
@@ -2045,7 +2057,7 @@
         <v>47.1</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52.9</v>
       </c>
     </row>
@@ -2066,7 +2078,7 @@
         <v>38.4</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61.6</v>
       </c>
     </row>
@@ -2087,7 +2099,7 @@
         <v>30.2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69.8</v>
       </c>
     </row>
@@ -2108,7 +2120,7 @@
         <v>41.9</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.1</v>
       </c>
     </row>
@@ -2129,7 +2141,7 @@
         <v>53.4</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46.6</v>
       </c>
     </row>
@@ -2150,7 +2162,7 @@
         <v>58.5</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41.5</v>
       </c>
     </row>
@@ -2171,7 +2183,7 @@
         <v>36.4</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63.6</v>
       </c>
     </row>
@@ -2192,7 +2204,7 @@
         <v>41.5</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.5</v>
       </c>
     </row>
@@ -2213,7 +2225,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.7</v>
       </c>
     </row>
@@ -2234,7 +2246,7 @@
         <v>51.2</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48.8</v>
       </c>
     </row>
@@ -2255,7 +2267,7 @@
         <v>50.5</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49.5</v>
       </c>
     </row>
@@ -2276,7 +2288,7 @@
         <v>56.8</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43.2</v>
       </c>
     </row>
@@ -2297,7 +2309,7 @@
         <v>67.8</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.200000000000003</v>
       </c>
     </row>
@@ -2318,7 +2330,7 @@
         <v>40.799999999999997</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.2</v>
       </c>
     </row>
@@ -2339,7 +2351,7 @@
         <v>30.5</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69.5</v>
       </c>
     </row>
@@ -2360,7 +2372,7 @@
         <v>64.2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.799999999999997</v>
       </c>
     </row>
@@ -2381,7 +2393,7 @@
         <v>50.2</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49.8</v>
       </c>
     </row>
@@ -2402,7 +2414,7 @@
         <v>62.2</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37.799999999999997</v>
       </c>
     </row>
@@ -2423,7 +2435,7 @@
         <v>54.3</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.7</v>
       </c>
     </row>
@@ -2444,7 +2456,7 @@
         <v>63.4</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.6</v>
       </c>
     </row>
@@ -2465,7 +2477,7 @@
         <v>56.3</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43.7</v>
       </c>
     </row>
@@ -2486,7 +2498,7 @@
         <v>49.7</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.3</v>
       </c>
     </row>
@@ -2507,7 +2519,7 @@
         <v>38.299999999999997</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61.7</v>
       </c>
     </row>
@@ -2528,7 +2540,7 @@
         <v>45</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
@@ -2549,7 +2561,7 @@
         <v>35.200000000000003</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.8</v>
       </c>
     </row>
@@ -2570,7 +2582,7 @@
         <v>36.299999999999997</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63.7</v>
       </c>
     </row>
@@ -2591,7 +2603,7 @@
         <v>72.400000000000006</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.599999999999994</v>
       </c>
     </row>
@@ -2612,7 +2624,7 @@
         <v>55.9</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.1</v>
       </c>
     </row>
@@ -2633,7 +2645,7 @@
         <v>37.700000000000003</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62.3</v>
       </c>
     </row>
@@ -2654,7 +2666,7 @@
         <v>53.3</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F66:F97" si="2">SUM(100-E66)</f>
         <v>46.7</v>
       </c>
     </row>
@@ -2675,7 +2687,7 @@
         <v>43.4</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="1">SUM(100-E67)</f>
+        <f t="shared" si="2"/>
         <v>56.6</v>
       </c>
     </row>
@@ -2696,7 +2708,7 @@
         <v>45.7</v>
       </c>
       <c r="F68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.3</v>
       </c>
     </row>
@@ -2717,7 +2729,7 @@
         <v>67.5</v>
       </c>
       <c r="F69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32.5</v>
       </c>
     </row>
@@ -2738,7 +2750,7 @@
         <v>58.9</v>
       </c>
       <c r="F70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41.1</v>
       </c>
     </row>
@@ -2759,7 +2771,7 @@
         <v>60.7</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.299999999999997</v>
       </c>
     </row>
@@ -2780,7 +2792,7 @@
         <v>54.7</v>
       </c>
       <c r="F72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.3</v>
       </c>
     </row>
@@ -2801,7 +2813,7 @@
         <v>35.200000000000003</v>
       </c>
       <c r="F73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64.8</v>
       </c>
     </row>
@@ -2822,7 +2834,7 @@
         <v>70.099999999999994</v>
       </c>
       <c r="F74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.900000000000006</v>
       </c>
     </row>
@@ -2843,7 +2855,7 @@
         <v>53</v>
       </c>
       <c r="F75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
     </row>
@@ -2864,7 +2876,7 @@
         <v>41.2</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.8</v>
       </c>
     </row>
@@ -2885,7 +2897,7 @@
         <v>49.6</v>
       </c>
       <c r="F77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50.4</v>
       </c>
     </row>
@@ -2906,7 +2918,7 @@
         <v>54.6</v>
       </c>
       <c r="F78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.4</v>
       </c>
     </row>
@@ -2927,7 +2939,7 @@
         <v>58.8</v>
       </c>
       <c r="F79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41.2</v>
       </c>
     </row>
@@ -2948,7 +2960,7 @@
         <v>29</v>
       </c>
       <c r="F80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
     </row>
@@ -2969,7 +2981,7 @@
         <v>55.4</v>
       </c>
       <c r="F81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.6</v>
       </c>
     </row>
@@ -2990,7 +3002,7 @@
         <v>33.9</v>
       </c>
       <c r="F82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66.099999999999994</v>
       </c>
     </row>
@@ -3011,7 +3023,7 @@
         <v>63.1</v>
       </c>
       <c r="F83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.9</v>
       </c>
     </row>
@@ -3032,7 +3044,7 @@
         <v>54.1</v>
       </c>
       <c r="F84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.9</v>
       </c>
     </row>
@@ -3053,7 +3065,7 @@
         <v>50.9</v>
       </c>
       <c r="F85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49.1</v>
       </c>
     </row>
@@ -3074,7 +3086,7 @@
         <v>66.3</v>
       </c>
       <c r="F86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.700000000000003</v>
       </c>
     </row>
@@ -3095,7 +3107,7 @@
         <v>56.4</v>
       </c>
       <c r="F87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43.6</v>
       </c>
     </row>
@@ -3116,7 +3128,7 @@
         <v>46.1</v>
       </c>
       <c r="F88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53.9</v>
       </c>
     </row>
@@ -3137,7 +3149,7 @@
         <v>45.3</v>
       </c>
       <c r="F89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.7</v>
       </c>
     </row>
@@ -3158,7 +3170,7 @@
         <v>57.4</v>
       </c>
       <c r="F90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.6</v>
       </c>
     </row>
@@ -3179,7 +3191,7 @@
         <v>40.4</v>
       </c>
       <c r="F91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.6</v>
       </c>
     </row>
@@ -3200,7 +3212,7 @@
         <v>68.599999999999994</v>
       </c>
       <c r="F92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.400000000000006</v>
       </c>
     </row>
@@ -3221,7 +3233,7 @@
         <v>41.8</v>
       </c>
       <c r="F93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.2</v>
       </c>
     </row>
@@ -3242,7 +3254,7 @@
         <v>48.7</v>
       </c>
       <c r="F94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51.3</v>
       </c>
     </row>
@@ -3263,7 +3275,7 @@
         <v>49.9</v>
       </c>
       <c r="F95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50.1</v>
       </c>
     </row>
@@ -3284,7 +3296,7 @@
         <v>60.3</v>
       </c>
       <c r="F96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.700000000000003</v>
       </c>
     </row>
@@ -3305,7 +3317,7 @@
         <v>56.2</v>
       </c>
       <c r="F97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43.8</v>
       </c>
     </row>
@@ -3326,7 +3338,7 @@
         <v>68</v>
       </c>
       <c r="F98">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F98:F129" si="3">SUM(100-E98)</f>
         <v>32</v>
       </c>
     </row>
@@ -3347,7 +3359,7 @@
         <v>34</v>
       </c>
       <c r="F99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
     </row>
@@ -3368,7 +3380,7 @@
         <v>41.4</v>
       </c>
       <c r="F100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>58.6</v>
       </c>
     </row>
@@ -3389,7 +3401,7 @@
         <v>68.900000000000006</v>
       </c>
       <c r="F101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31.099999999999994</v>
       </c>
     </row>
@@ -3410,7 +3422,7 @@
         <v>39.299999999999997</v>
       </c>
       <c r="F102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60.7</v>
       </c>
     </row>
@@ -3431,7 +3443,7 @@
         <v>45.8</v>
       </c>
       <c r="F103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>54.2</v>
       </c>
     </row>
@@ -3452,7 +3464,7 @@
         <v>50.1</v>
       </c>
       <c r="F104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49.9</v>
       </c>
     </row>
@@ -3473,7 +3485,7 @@
         <v>29.7</v>
       </c>
       <c r="F105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>70.3</v>
       </c>
     </row>
@@ -3494,7 +3506,7 @@
         <v>30.2</v>
       </c>
       <c r="F106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>69.8</v>
       </c>
     </row>
@@ -3515,7 +3527,7 @@
         <v>60.6</v>
       </c>
       <c r="F107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39.4</v>
       </c>
     </row>
@@ -3536,7 +3548,7 @@
         <v>47.7</v>
       </c>
       <c r="F108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52.3</v>
       </c>
     </row>
@@ -3557,7 +3569,7 @@
         <v>64</v>
       </c>
       <c r="F109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
@@ -3578,7 +3590,7 @@
         <v>50.5</v>
       </c>
       <c r="F110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
     </row>
@@ -3599,7 +3611,7 @@
         <v>45.3</v>
       </c>
       <c r="F111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>54.7</v>
       </c>
     </row>
@@ -3620,7 +3632,7 @@
         <v>46.1</v>
       </c>
       <c r="F112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53.9</v>
       </c>
     </row>
@@ -3641,7 +3653,7 @@
         <v>28</v>
       </c>
       <c r="F113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
     </row>
@@ -3662,7 +3674,7 @@
         <v>68.2</v>
       </c>
       <c r="F114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31.799999999999997</v>
       </c>
     </row>
@@ -3683,7 +3695,7 @@
         <v>42.9</v>
       </c>
       <c r="F115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>57.1</v>
       </c>
     </row>
@@ -3704,7 +3716,7 @@
         <v>24.9</v>
       </c>
       <c r="F116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>75.099999999999994</v>
       </c>
     </row>
@@ -3725,7 +3737,7 @@
         <v>64.7</v>
       </c>
       <c r="F117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35.299999999999997</v>
       </c>
     </row>
@@ -3746,7 +3758,7 @@
         <v>54.1</v>
       </c>
       <c r="F118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45.9</v>
       </c>
     </row>
@@ -3767,7 +3779,7 @@
         <v>45.1</v>
       </c>
       <c r="F119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>54.9</v>
       </c>
     </row>
@@ -3788,7 +3800,7 @@
         <v>77.2</v>
       </c>
       <c r="F120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22.799999999999997</v>
       </c>
     </row>
@@ -3809,7 +3821,7 @@
         <v>35.200000000000003</v>
       </c>
       <c r="F121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>64.8</v>
       </c>
     </row>
@@ -3830,7 +3842,7 @@
         <v>68.7</v>
       </c>
       <c r="F122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31.299999999999997</v>
       </c>
     </row>
@@ -3851,7 +3863,7 @@
         <v>61</v>
       </c>
       <c r="F123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
     </row>
@@ -3872,7 +3884,7 @@
         <v>46.4</v>
       </c>
       <c r="F124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53.6</v>
       </c>
     </row>
@@ -3893,7 +3905,7 @@
         <v>75.8</v>
       </c>
       <c r="F125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24.200000000000003</v>
       </c>
     </row>
@@ -3914,7 +3926,7 @@
         <v>51.9</v>
       </c>
       <c r="F126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48.1</v>
       </c>
     </row>
@@ -3935,7 +3947,7 @@
         <v>59.1</v>
       </c>
       <c r="F127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40.9</v>
       </c>
     </row>
@@ -3956,7 +3968,7 @@
         <v>40.1</v>
       </c>
       <c r="F128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59.9</v>
       </c>
     </row>
@@ -3977,7 +3989,7 @@
         <v>35.299999999999997</v>
       </c>
       <c r="F129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>64.7</v>
       </c>
     </row>
@@ -3998,7 +4010,7 @@
         <v>48.3</v>
       </c>
       <c r="F130">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F130:F161" si="4">SUM(100-E130)</f>
         <v>51.7</v>
       </c>
     </row>
@@ -4019,7 +4031,7 @@
         <v>42.2</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="2">SUM(100-E131)</f>
+        <f t="shared" si="4"/>
         <v>57.8</v>
       </c>
     </row>
@@ -4040,7 +4052,7 @@
         <v>49.5</v>
       </c>
       <c r="F132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50.5</v>
       </c>
     </row>
@@ -4061,7 +4073,7 @@
         <v>73.5</v>
       </c>
       <c r="F133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26.5</v>
       </c>
     </row>
@@ -4082,7 +4094,7 @@
         <v>56.4</v>
       </c>
       <c r="F134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43.6</v>
       </c>
     </row>
@@ -4103,7 +4115,7 @@
         <v>41.5</v>
       </c>
       <c r="F135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
     </row>
@@ -4124,8 +4136,50 @@
         <v>32.700000000000003</v>
       </c>
       <c r="F136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>67.3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>53</v>
+      </c>
+      <c r="B137" t="s">
+        <v>31</v>
+      </c>
+      <c r="C137" t="s">
+        <v>296</v>
+      </c>
+      <c r="D137" t="s">
+        <v>297</v>
+      </c>
+      <c r="E137">
+        <v>36.4</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="4"/>
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>35</v>
+      </c>
+      <c r="B138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>298</v>
+      </c>
+      <c r="D138" t="s">
+        <v>299</v>
+      </c>
+      <c r="E138">
+        <v>53.7</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="4"/>
+        <v>46.3</v>
       </c>
     </row>
   </sheetData>

--- a/EPLPredictorBackend/PLResults.xlsx
+++ b/EPLPredictorBackend/PLResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saahil Parikh\Projects\EPLPredictor\EPLPredictorBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D240FEBB-619C-4161-AABA-62E8DF8D1333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56F5C10-719A-4D41-BE6B-EA1FF31D9DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="320">
   <si>
     <t>Home Team</t>
   </si>
@@ -930,6 +930,66 @@
   </si>
   <si>
     <t>0.277737</t>
+  </si>
+  <si>
+    <t>1.0396</t>
+  </si>
+  <si>
+    <t>2.08423</t>
+  </si>
+  <si>
+    <t>4.58214</t>
+  </si>
+  <si>
+    <t>0.849086</t>
+  </si>
+  <si>
+    <t>0.781855</t>
+  </si>
+  <si>
+    <t>0.119709</t>
+  </si>
+  <si>
+    <t>1.94485</t>
+  </si>
+  <si>
+    <t>2.25414</t>
+  </si>
+  <si>
+    <t>3.19575</t>
+  </si>
+  <si>
+    <t>0.200953</t>
+  </si>
+  <si>
+    <t>1.25106</t>
+  </si>
+  <si>
+    <t>0.568803</t>
+  </si>
+  <si>
+    <t>2.13271</t>
+  </si>
+  <si>
+    <t>1.54591</t>
+  </si>
+  <si>
+    <t>1.38877</t>
+  </si>
+  <si>
+    <t>1.50551</t>
+  </si>
+  <si>
+    <t>1.45485</t>
+  </si>
+  <si>
+    <t>0.739845</t>
+  </si>
+  <si>
+    <t>0.742598</t>
+  </si>
+  <si>
+    <t>0.408109</t>
   </si>
 </sst>
 </file>
@@ -1269,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4182,6 +4242,216 @@
         <v>46.3</v>
       </c>
     </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" t="s">
+        <v>42</v>
+      </c>
+      <c r="C139" t="s">
+        <v>300</v>
+      </c>
+      <c r="D139" t="s">
+        <v>301</v>
+      </c>
+      <c r="E139">
+        <v>54.4</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="4"/>
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>56</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" t="s">
+        <v>302</v>
+      </c>
+      <c r="D140" t="s">
+        <v>303</v>
+      </c>
+      <c r="E140">
+        <v>38.6</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="4"/>
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>304</v>
+      </c>
+      <c r="D141" t="s">
+        <v>305</v>
+      </c>
+      <c r="E141">
+        <v>46.7</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="4"/>
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142" t="s">
+        <v>306</v>
+      </c>
+      <c r="D142" t="s">
+        <v>307</v>
+      </c>
+      <c r="E142">
+        <v>39</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>59</v>
+      </c>
+      <c r="B143" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" t="s">
+        <v>308</v>
+      </c>
+      <c r="D143" t="s">
+        <v>309</v>
+      </c>
+      <c r="E143">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="4"/>
+        <v>24.900000000000006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>30</v>
+      </c>
+      <c r="B144" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" t="s">
+        <v>310</v>
+      </c>
+      <c r="D144" t="s">
+        <v>311</v>
+      </c>
+      <c r="E144">
+        <v>43.8</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="4"/>
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" t="s">
+        <v>53</v>
+      </c>
+      <c r="C145" t="s">
+        <v>312</v>
+      </c>
+      <c r="D145" t="s">
+        <v>313</v>
+      </c>
+      <c r="E145">
+        <v>51.4</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="4"/>
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" t="s">
+        <v>34</v>
+      </c>
+      <c r="C146" t="s">
+        <v>314</v>
+      </c>
+      <c r="D146" t="s">
+        <v>315</v>
+      </c>
+      <c r="E146">
+        <v>43.6</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="4"/>
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" t="s">
+        <v>316</v>
+      </c>
+      <c r="D147" t="s">
+        <v>317</v>
+      </c>
+      <c r="E147">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="4"/>
+        <v>21.900000000000006</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>31</v>
+      </c>
+      <c r="B148" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" t="s">
+        <v>318</v>
+      </c>
+      <c r="D148" t="s">
+        <v>319</v>
+      </c>
+      <c r="E148">
+        <v>54.6</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="4"/>
+        <v>45.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/EPLPredictorBackend/PLResults.xlsx
+++ b/EPLPredictorBackend/PLResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saahil Parikh\Projects\EPLPredictor\EPLPredictorBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56F5C10-719A-4D41-BE6B-EA1FF31D9DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E072EE-9C45-4812-B304-0AFEFA129A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="336">
   <si>
     <t>Home Team</t>
   </si>
@@ -990,6 +990,54 @@
   </si>
   <si>
     <t>0.408109</t>
+  </si>
+  <si>
+    <t>0.321348</t>
+  </si>
+  <si>
+    <t>1.72132</t>
+  </si>
+  <si>
+    <t>1.53701</t>
+  </si>
+  <si>
+    <t>0.730859</t>
+  </si>
+  <si>
+    <t>0.799368</t>
+  </si>
+  <si>
+    <t>1.31394</t>
+  </si>
+  <si>
+    <t>0.973831</t>
+  </si>
+  <si>
+    <t>0.492578</t>
+  </si>
+  <si>
+    <t>0.670996</t>
+  </si>
+  <si>
+    <t>1.07246</t>
+  </si>
+  <si>
+    <t>0.43551</t>
+  </si>
+  <si>
+    <t>1.54225</t>
+  </si>
+  <si>
+    <t>1.48207</t>
+  </si>
+  <si>
+    <t>0.411046</t>
+  </si>
+  <si>
+    <t>0.817935</t>
+  </si>
+  <si>
+    <t>1.32047</t>
   </si>
 </sst>
 </file>
@@ -1329,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4452,6 +4500,174 @@
         <v>45.4</v>
       </c>
     </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149" t="s">
+        <v>320</v>
+      </c>
+      <c r="D149" t="s">
+        <v>321</v>
+      </c>
+      <c r="E149">
+        <v>33.1</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="4"/>
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>35</v>
+      </c>
+      <c r="B150" t="s">
+        <v>56</v>
+      </c>
+      <c r="C150" t="s">
+        <v>322</v>
+      </c>
+      <c r="D150" t="s">
+        <v>323</v>
+      </c>
+      <c r="E150">
+        <v>63.4</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="4"/>
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>34</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>324</v>
+      </c>
+      <c r="D151" t="s">
+        <v>325</v>
+      </c>
+      <c r="E151">
+        <v>49.7</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="4"/>
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>53</v>
+      </c>
+      <c r="B152" t="s">
+        <v>30</v>
+      </c>
+      <c r="C152" t="s">
+        <v>326</v>
+      </c>
+      <c r="D152" t="s">
+        <v>327</v>
+      </c>
+      <c r="E152">
+        <v>37.1</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="4"/>
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" t="s">
+        <v>328</v>
+      </c>
+      <c r="D153" t="s">
+        <v>329</v>
+      </c>
+      <c r="E153">
+        <v>62.6</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="4"/>
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>22</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" t="s">
+        <v>330</v>
+      </c>
+      <c r="D154" t="s">
+        <v>331</v>
+      </c>
+      <c r="E154">
+        <v>24.4</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="4"/>
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>42</v>
+      </c>
+      <c r="B155" t="s">
+        <v>31</v>
+      </c>
+      <c r="C155" t="s">
+        <v>332</v>
+      </c>
+      <c r="D155" t="s">
+        <v>333</v>
+      </c>
+      <c r="E155">
+        <v>58.2</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="4"/>
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" t="s">
+        <v>334</v>
+      </c>
+      <c r="D156" t="s">
+        <v>335</v>
+      </c>
+      <c r="E156">
+        <v>26.9</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="4"/>
+        <v>73.099999999999994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/EPLPredictorBackend/PLResults.xlsx
+++ b/EPLPredictorBackend/PLResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saahil Parikh\Projects\EPLPredictor\EPLPredictorBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E072EE-9C45-4812-B304-0AFEFA129A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4968C81-8250-4F55-B2B5-0230A21E6486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="354">
   <si>
     <t>Home Team</t>
   </si>
@@ -1038,6 +1038,60 @@
   </si>
   <si>
     <t>1.32047</t>
+  </si>
+  <si>
+    <t>0.371045</t>
+  </si>
+  <si>
+    <t>1.19713</t>
+  </si>
+  <si>
+    <t>2.46473</t>
+  </si>
+  <si>
+    <t>1.56434</t>
+  </si>
+  <si>
+    <t>2.5286</t>
+  </si>
+  <si>
+    <t>1.15626</t>
+  </si>
+  <si>
+    <t>0.598888</t>
+  </si>
+  <si>
+    <t>0.323158</t>
+  </si>
+  <si>
+    <t>2.4228</t>
+  </si>
+  <si>
+    <t>1.81856</t>
+  </si>
+  <si>
+    <t>0.869874</t>
+  </si>
+  <si>
+    <t>4.03429</t>
+  </si>
+  <si>
+    <t>0.264584</t>
+  </si>
+  <si>
+    <t>0.702081</t>
+  </si>
+  <si>
+    <t>0.691013</t>
+  </si>
+  <si>
+    <t>3.18063</t>
+  </si>
+  <si>
+    <t>0.500436</t>
+  </si>
+  <si>
+    <t>1.37204</t>
   </si>
 </sst>
 </file>
@@ -1377,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4118,7 +4172,7 @@
         <v>48.3</v>
       </c>
       <c r="F130">
-        <f t="shared" ref="F130:F161" si="4">SUM(100-E130)</f>
+        <f t="shared" ref="F130:F193" si="4">SUM(100-E130)</f>
         <v>51.7</v>
       </c>
     </row>
@@ -4666,6 +4720,195 @@
       <c r="F156">
         <f t="shared" si="4"/>
         <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" t="s">
+        <v>336</v>
+      </c>
+      <c r="D157" t="s">
+        <v>337</v>
+      </c>
+      <c r="E157">
+        <v>60</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>42</v>
+      </c>
+      <c r="B158" t="s">
+        <v>56</v>
+      </c>
+      <c r="C158" t="s">
+        <v>338</v>
+      </c>
+      <c r="D158" t="s">
+        <v>339</v>
+      </c>
+      <c r="E158">
+        <v>48.4</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="4"/>
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>26</v>
+      </c>
+      <c r="B159" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159" t="s">
+        <v>340</v>
+      </c>
+      <c r="D159" t="s">
+        <v>341</v>
+      </c>
+      <c r="E159">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="4"/>
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" t="s">
+        <v>30</v>
+      </c>
+      <c r="C160" t="s">
+        <v>342</v>
+      </c>
+      <c r="D160" t="s">
+        <v>343</v>
+      </c>
+      <c r="E160">
+        <v>44.4</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="4"/>
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>34</v>
+      </c>
+      <c r="B161" t="s">
+        <v>31</v>
+      </c>
+      <c r="C161" t="s">
+        <v>344</v>
+      </c>
+      <c r="D161" t="s">
+        <v>345</v>
+      </c>
+      <c r="E161">
+        <v>54.5</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="4"/>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>22</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>346</v>
+      </c>
+      <c r="D162" t="s">
+        <v>347</v>
+      </c>
+      <c r="E162">
+        <v>38.1</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="4"/>
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" t="s">
+        <v>23</v>
+      </c>
+      <c r="C163" t="s">
+        <v>348</v>
+      </c>
+      <c r="D163" t="s">
+        <v>349</v>
+      </c>
+      <c r="E163">
+        <v>43.3</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="4"/>
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>35</v>
+      </c>
+      <c r="B164" t="s">
+        <v>59</v>
+      </c>
+      <c r="C164" t="s">
+        <v>350</v>
+      </c>
+      <c r="D164" t="s">
+        <v>351</v>
+      </c>
+      <c r="E164">
+        <v>54.6</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="4"/>
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" t="s">
+        <v>352</v>
+      </c>
+      <c r="D165" t="s">
+        <v>353</v>
+      </c>
+      <c r="E165">
+        <v>33</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="4"/>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/EPLPredictorBackend/PLResults.xlsx
+++ b/EPLPredictorBackend/PLResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saahil Parikh\Projects\EPLPredictor\EPLPredictorBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4968C81-8250-4F55-B2B5-0230A21E6486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CAFB01-D9AC-40FB-86EE-00F01CD64D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="366">
   <si>
     <t>Home Team</t>
   </si>
@@ -1092,6 +1092,42 @@
   </si>
   <si>
     <t>1.37204</t>
+  </si>
+  <si>
+    <t>2.01315</t>
+  </si>
+  <si>
+    <t>1.04745</t>
+  </si>
+  <si>
+    <t>0.852495</t>
+  </si>
+  <si>
+    <t>0.323445</t>
+  </si>
+  <si>
+    <t>0.648582</t>
+  </si>
+  <si>
+    <t>1.23996</t>
+  </si>
+  <si>
+    <t>2.90855</t>
+  </si>
+  <si>
+    <t>0.177084</t>
+  </si>
+  <si>
+    <t>3.14372</t>
+  </si>
+  <si>
+    <t>1.05329</t>
+  </si>
+  <si>
+    <t>0.368554</t>
+  </si>
+  <si>
+    <t>0.709634</t>
   </si>
 </sst>
 </file>
@@ -1431,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+      <selection activeCell="E172" sqref="E172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4172,7 +4208,7 @@
         <v>48.3</v>
       </c>
       <c r="F130">
-        <f t="shared" ref="F130:F193" si="4">SUM(100-E130)</f>
+        <f t="shared" ref="F130:F161" si="4">SUM(100-E130)</f>
         <v>51.7</v>
       </c>
     </row>
@@ -4844,7 +4880,7 @@
         <v>38.1</v>
       </c>
       <c r="F162">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F162:F193" si="5">SUM(100-E162)</f>
         <v>61.9</v>
       </c>
     </row>
@@ -4865,7 +4901,7 @@
         <v>43.3</v>
       </c>
       <c r="F163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.7</v>
       </c>
     </row>
@@ -4886,7 +4922,7 @@
         <v>54.6</v>
       </c>
       <c r="F164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.4</v>
       </c>
     </row>
@@ -4907,8 +4943,134 @@
         <v>33</v>
       </c>
       <c r="F165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>30</v>
+      </c>
+      <c r="B166" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" t="s">
+        <v>354</v>
+      </c>
+      <c r="D166" t="s">
+        <v>355</v>
+      </c>
+      <c r="E166">
+        <v>66.2</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="5"/>
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>31</v>
+      </c>
+      <c r="B167" t="s">
+        <v>27</v>
+      </c>
+      <c r="C167" t="s">
+        <v>356</v>
+      </c>
+      <c r="D167" t="s">
+        <v>357</v>
+      </c>
+      <c r="E167">
+        <v>52.8</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="5"/>
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>53</v>
+      </c>
+      <c r="B168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C168" t="s">
+        <v>358</v>
+      </c>
+      <c r="D168" t="s">
+        <v>359</v>
+      </c>
+      <c r="E168">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="5"/>
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>59</v>
+      </c>
+      <c r="B169" t="s">
+        <v>34</v>
+      </c>
+      <c r="C169" t="s">
+        <v>360</v>
+      </c>
+      <c r="D169" t="s">
+        <v>361</v>
+      </c>
+      <c r="E169">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="5"/>
+        <v>34.900000000000006</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>26</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" t="s">
+        <v>362</v>
+      </c>
+      <c r="D170" t="s">
+        <v>363</v>
+      </c>
+      <c r="E170">
+        <v>52.4</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="5"/>
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" t="s">
+        <v>364</v>
+      </c>
+      <c r="D171" t="s">
+        <v>365</v>
+      </c>
+      <c r="E171">
+        <v>67.2</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="5"/>
+        <v>32.799999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/EPLPredictorBackend/PLResults.xlsx
+++ b/EPLPredictorBackend/PLResults.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saahil Parikh\Projects\EPLPredictor\EPLPredictorBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CAFB01-D9AC-40FB-86EE-00F01CD64D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ABE1D8-1E24-426F-9098-4A799CB58061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="396">
   <si>
     <t>Home Team</t>
   </si>
@@ -1128,6 +1128,96 @@
   </si>
   <si>
     <t>0.709634</t>
+  </si>
+  <si>
+    <t>1.94358</t>
+  </si>
+  <si>
+    <t>2.46332</t>
+  </si>
+  <si>
+    <t>0.245193</t>
+  </si>
+  <si>
+    <t>1.14424</t>
+  </si>
+  <si>
+    <t>1.73397</t>
+  </si>
+  <si>
+    <t>0.395668</t>
+  </si>
+  <si>
+    <t>0.46126</t>
+  </si>
+  <si>
+    <t>1.37939</t>
+  </si>
+  <si>
+    <t>2.12019</t>
+  </si>
+  <si>
+    <t>0.378147</t>
+  </si>
+  <si>
+    <t>0.978133</t>
+  </si>
+  <si>
+    <t>1.28385</t>
+  </si>
+  <si>
+    <t>1.20205</t>
+  </si>
+  <si>
+    <t>1.18929</t>
+  </si>
+  <si>
+    <t>0.961088</t>
+  </si>
+  <si>
+    <t>0.0515836</t>
+  </si>
+  <si>
+    <t>2.30744</t>
+  </si>
+  <si>
+    <t>0.168796</t>
+  </si>
+  <si>
+    <t>2.17512</t>
+  </si>
+  <si>
+    <t>0.464091</t>
+  </si>
+  <si>
+    <t>1.1449</t>
+  </si>
+  <si>
+    <t>0.615727</t>
+  </si>
+  <si>
+    <t>3.34385</t>
+  </si>
+  <si>
+    <t>0.601768</t>
+  </si>
+  <si>
+    <t>0.753669</t>
+  </si>
+  <si>
+    <t>1.68401</t>
+  </si>
+  <si>
+    <t>1.64907</t>
+  </si>
+  <si>
+    <t>1.08059</t>
+  </si>
+  <si>
+    <t>2.6026</t>
+  </si>
+  <si>
+    <t>0.400364</t>
   </si>
 </sst>
 </file>
@@ -1467,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="E172" sqref="E172"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5073,6 +5163,321 @@
         <v>32.799999999999997</v>
       </c>
     </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>31</v>
+      </c>
+      <c r="B172" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" t="s">
+        <v>366</v>
+      </c>
+      <c r="D172" t="s">
+        <v>367</v>
+      </c>
+      <c r="E172">
+        <v>67.8</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="5"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" t="s">
+        <v>34</v>
+      </c>
+      <c r="C173" t="s">
+        <v>368</v>
+      </c>
+      <c r="D173" t="s">
+        <v>369</v>
+      </c>
+      <c r="E173">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="5"/>
+        <v>33.400000000000006</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" t="s">
+        <v>53</v>
+      </c>
+      <c r="C174" t="s">
+        <v>370</v>
+      </c>
+      <c r="D174" t="s">
+        <v>371</v>
+      </c>
+      <c r="E174">
+        <v>44.8</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="5"/>
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>35</v>
+      </c>
+      <c r="C175" t="s">
+        <v>372</v>
+      </c>
+      <c r="D175" t="s">
+        <v>373</v>
+      </c>
+      <c r="E175">
+        <v>30.2</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="5"/>
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>23</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" t="s">
+        <v>374</v>
+      </c>
+      <c r="D176" t="s">
+        <v>375</v>
+      </c>
+      <c r="E176">
+        <v>47.4</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="5"/>
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>30</v>
+      </c>
+      <c r="B177" t="s">
+        <v>26</v>
+      </c>
+      <c r="C177" t="s">
+        <v>376</v>
+      </c>
+      <c r="D177" t="s">
+        <v>377</v>
+      </c>
+      <c r="E177">
+        <v>42</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" t="s">
+        <v>42</v>
+      </c>
+      <c r="C178" t="s">
+        <v>378</v>
+      </c>
+      <c r="D178" t="s">
+        <v>379</v>
+      </c>
+      <c r="E178">
+        <v>65.7</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="5"/>
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>59</v>
+      </c>
+      <c r="B179" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" t="s">
+        <v>380</v>
+      </c>
+      <c r="D179" t="s">
+        <v>381</v>
+      </c>
+      <c r="E179">
+        <v>72.2</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="5"/>
+        <v>27.799999999999997</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" t="s">
+        <v>382</v>
+      </c>
+      <c r="D180" t="s">
+        <v>383</v>
+      </c>
+      <c r="E180">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="5"/>
+        <v>33.599999999999994</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" t="s">
+        <v>384</v>
+      </c>
+      <c r="D181" t="s">
+        <v>385</v>
+      </c>
+      <c r="E181">
+        <v>59</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>23</v>
+      </c>
+      <c r="B182" t="s">
+        <v>35</v>
+      </c>
+      <c r="C182" t="s">
+        <v>386</v>
+      </c>
+      <c r="D182" t="s">
+        <v>387</v>
+      </c>
+      <c r="E182">
+        <v>35.6</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="5"/>
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>59</v>
+      </c>
+      <c r="B183" t="s">
+        <v>56</v>
+      </c>
+      <c r="C183" t="s">
+        <v>388</v>
+      </c>
+      <c r="D183" t="s">
+        <v>389</v>
+      </c>
+      <c r="E183">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="5"/>
+        <v>30.900000000000006</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>42</v>
+      </c>
+      <c r="C184" t="s">
+        <v>390</v>
+      </c>
+      <c r="D184" t="s">
+        <v>391</v>
+      </c>
+      <c r="E184">
+        <v>38.4</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="5"/>
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185" t="s">
+        <v>53</v>
+      </c>
+      <c r="C185" t="s">
+        <v>392</v>
+      </c>
+      <c r="D185" t="s">
+        <v>393</v>
+      </c>
+      <c r="E185">
+        <v>71.8</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="5"/>
+        <v>28.200000000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>56</v>
+      </c>
+      <c r="B186" t="s">
+        <v>19</v>
+      </c>
+      <c r="C186" t="s">
+        <v>394</v>
+      </c>
+      <c r="D186" t="s">
+        <v>395</v>
+      </c>
+      <c r="E186">
+        <v>59.2</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="5"/>
+        <v>40.799999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/EPLPredictorBackend/PLResults.xlsx
+++ b/EPLPredictorBackend/PLResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saahil Parikh\Projects\EPLPredictor\EPLPredictorBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ABE1D8-1E24-426F-9098-4A799CB58061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036EC68E-06B0-41FE-9204-57F94FE9949D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="436">
   <si>
     <t>Home Team</t>
   </si>
@@ -1218,6 +1218,126 @@
   </si>
   <si>
     <t>0.400364</t>
+  </si>
+  <si>
+    <t>1.1364</t>
+  </si>
+  <si>
+    <t>0.785914</t>
+  </si>
+  <si>
+    <t>0.629033</t>
+  </si>
+  <si>
+    <t>3.30321</t>
+  </si>
+  <si>
+    <t>0.568258</t>
+  </si>
+  <si>
+    <t>2.24838</t>
+  </si>
+  <si>
+    <t>0.99504</t>
+  </si>
+  <si>
+    <t>2.4339</t>
+  </si>
+  <si>
+    <t>0.717681</t>
+  </si>
+  <si>
+    <t>2.70718</t>
+  </si>
+  <si>
+    <t>0.663324</t>
+  </si>
+  <si>
+    <t>0.63192</t>
+  </si>
+  <si>
+    <t>2.29129</t>
+  </si>
+  <si>
+    <t>0.513226</t>
+  </si>
+  <si>
+    <t>0.474981</t>
+  </si>
+  <si>
+    <t>0.792045</t>
+  </si>
+  <si>
+    <t>0.9931</t>
+  </si>
+  <si>
+    <t>0.689548</t>
+  </si>
+  <si>
+    <t>0.104586</t>
+  </si>
+  <si>
+    <t>2.58798</t>
+  </si>
+  <si>
+    <t>0.966012</t>
+  </si>
+  <si>
+    <t>2.08832</t>
+  </si>
+  <si>
+    <t>1.36877</t>
+  </si>
+  <si>
+    <t>0.450907</t>
+  </si>
+  <si>
+    <t>0.994664</t>
+  </si>
+  <si>
+    <t>1.52044</t>
+  </si>
+  <si>
+    <t>1.53116</t>
+  </si>
+  <si>
+    <t>0.154537</t>
+  </si>
+  <si>
+    <t>0.747166</t>
+  </si>
+  <si>
+    <t>1.51332</t>
+  </si>
+  <si>
+    <t>2.22557</t>
+  </si>
+  <si>
+    <t>0.795508</t>
+  </si>
+  <si>
+    <t>1.4405</t>
+  </si>
+  <si>
+    <t>0.390714</t>
+  </si>
+  <si>
+    <t>1.73432</t>
+  </si>
+  <si>
+    <t>1.8141</t>
+  </si>
+  <si>
+    <t>0.883061</t>
+  </si>
+  <si>
+    <t>2.05809</t>
+  </si>
+  <si>
+    <t>1.77386</t>
+  </si>
+  <si>
+    <t>0.372524</t>
   </si>
 </sst>
 </file>
@@ -1557,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="E186" sqref="E186"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5478,6 +5598,426 @@
         <v>40.799999999999997</v>
       </c>
     </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" t="s">
+        <v>396</v>
+      </c>
+      <c r="D187" t="s">
+        <v>397</v>
+      </c>
+      <c r="E187">
+        <v>42.3</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="5"/>
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188" t="s">
+        <v>398</v>
+      </c>
+      <c r="D188" t="s">
+        <v>399</v>
+      </c>
+      <c r="E188">
+        <v>54.2</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="5"/>
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>22</v>
+      </c>
+      <c r="B189" t="s">
+        <v>59</v>
+      </c>
+      <c r="C189" t="s">
+        <v>400</v>
+      </c>
+      <c r="D189" t="s">
+        <v>401</v>
+      </c>
+      <c r="E189">
+        <v>22.3</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="5"/>
+        <v>77.7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>11</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" t="s">
+        <v>402</v>
+      </c>
+      <c r="D190" t="s">
+        <v>403</v>
+      </c>
+      <c r="E190">
+        <v>58</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>53</v>
+      </c>
+      <c r="B191" t="s">
+        <v>56</v>
+      </c>
+      <c r="C191" t="s">
+        <v>404</v>
+      </c>
+      <c r="D191" t="s">
+        <v>405</v>
+      </c>
+      <c r="E191">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="5"/>
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>35</v>
+      </c>
+      <c r="B192" t="s">
+        <v>31</v>
+      </c>
+      <c r="C192" t="s">
+        <v>406</v>
+      </c>
+      <c r="D192" t="s">
+        <v>407</v>
+      </c>
+      <c r="E192">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="5"/>
+        <v>21.099999999999994</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>34</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" t="s">
+        <v>408</v>
+      </c>
+      <c r="D193" t="s">
+        <v>409</v>
+      </c>
+      <c r="E193">
+        <v>49.5</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="5"/>
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>27</v>
+      </c>
+      <c r="B194" t="s">
+        <v>23</v>
+      </c>
+      <c r="C194" t="s">
+        <v>410</v>
+      </c>
+      <c r="D194" t="s">
+        <v>411</v>
+      </c>
+      <c r="E194">
+        <v>35</v>
+      </c>
+      <c r="F194">
+        <f t="shared" ref="F194:F225" si="6">SUM(100-E194)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>42</v>
+      </c>
+      <c r="B195" t="s">
+        <v>30</v>
+      </c>
+      <c r="C195" t="s">
+        <v>412</v>
+      </c>
+      <c r="D195" t="s">
+        <v>413</v>
+      </c>
+      <c r="E195">
+        <v>75.8</v>
+      </c>
+      <c r="F195">
+        <f t="shared" si="6"/>
+        <v>24.200000000000003</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>26</v>
+      </c>
+      <c r="B196" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" t="s">
+        <v>414</v>
+      </c>
+      <c r="D196" t="s">
+        <v>415</v>
+      </c>
+      <c r="E196">
+        <v>49.8</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="6"/>
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>27</v>
+      </c>
+      <c r="B197" t="s">
+        <v>19</v>
+      </c>
+      <c r="C197" t="s">
+        <v>416</v>
+      </c>
+      <c r="D197" t="s">
+        <v>417</v>
+      </c>
+      <c r="E197">
+        <v>60.9</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="6"/>
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" t="s">
+        <v>31</v>
+      </c>
+      <c r="C198" t="s">
+        <v>418</v>
+      </c>
+      <c r="D198" t="s">
+        <v>419</v>
+      </c>
+      <c r="E198">
+        <v>47.3</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="6"/>
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>22</v>
+      </c>
+      <c r="B199" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" t="s">
+        <v>420</v>
+      </c>
+      <c r="D199" t="s">
+        <v>421</v>
+      </c>
+      <c r="E199">
+        <v>37.5</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="6"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>59</v>
+      </c>
+      <c r="B200" t="s">
+        <v>30</v>
+      </c>
+      <c r="C200" t="s">
+        <v>422</v>
+      </c>
+      <c r="D200" t="s">
+        <v>423</v>
+      </c>
+      <c r="E200">
+        <v>75</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" t="s">
+        <v>42</v>
+      </c>
+      <c r="C201" t="s">
+        <v>424</v>
+      </c>
+      <c r="D201" t="s">
+        <v>425</v>
+      </c>
+      <c r="E201">
+        <v>43.3</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="6"/>
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>11</v>
+      </c>
+      <c r="B202" t="s">
+        <v>56</v>
+      </c>
+      <c r="C202" t="s">
+        <v>426</v>
+      </c>
+      <c r="D202" t="s">
+        <v>427</v>
+      </c>
+      <c r="E202">
+        <v>59.8</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="6"/>
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>35</v>
+      </c>
+      <c r="B203" t="s">
+        <v>53</v>
+      </c>
+      <c r="C203" t="s">
+        <v>428</v>
+      </c>
+      <c r="D203" t="s">
+        <v>429</v>
+      </c>
+      <c r="E203">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="6"/>
+        <v>28.900000000000006</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204" t="s">
+        <v>430</v>
+      </c>
+      <c r="D204" t="s">
+        <v>431</v>
+      </c>
+      <c r="E204">
+        <v>50.8</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="6"/>
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>18</v>
+      </c>
+      <c r="B205" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" t="s">
+        <v>432</v>
+      </c>
+      <c r="D205" t="s">
+        <v>433</v>
+      </c>
+      <c r="E205">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="6"/>
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>34</v>
+      </c>
+      <c r="B206" t="s">
+        <v>26</v>
+      </c>
+      <c r="C206" t="s">
+        <v>434</v>
+      </c>
+      <c r="D206" t="s">
+        <v>435</v>
+      </c>
+      <c r="E206">
+        <v>43.2</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="6"/>
+        <v>56.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
